--- a/InputFiles/TC03_CDS_Filter_LibrarySelection-PCR.xlsx
+++ b/InputFiles/TC03_CDS_Filter_LibrarySelection-PCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podagatlapalll2\CDS Automation\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\prasanna\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6002A575-BDDD-42DB-B3AB-E0812F80EDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EF0DF-B12E-4A66-A393-423A2438E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,9 @@
 ORDER BY `Participant ID`LIMIT 100</t>
   </si>
   <si>
+    <t>ParticipantsTab</t>
+  </si>
+  <si>
     <t>Match (f)&lt;--(g:genomic_info)
 WHERE g.library_selection in ['PCR']
 MATCH (f)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
@@ -110,10 +113,7 @@
  coalesce(s.phs_accession,'') as `Accession`,
 coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
-ORDER By samp.sample_id LIMIT 100</t>
-  </si>
-  <si>
-    <t>ParticipantsTab</t>
+ORDER By samp.sample_id LIMIT 10</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>

--- a/InputFiles/TC03_CDS_Filter_LibrarySelection-PCR.xlsx
+++ b/InputFiles/TC03_CDS_Filter_LibrarySelection-PCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\prasanna\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445EF0DF-B12E-4A66-A393-423A2438E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059F37F6-7E01-4F56-8AB7-0C49ED75A0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -113,7 +113,7 @@
  coalesce(s.phs_accession,'') as `Accession`,
 coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
-ORDER By samp.sample_id LIMIT 10</t>
+ORDER By samp.sample_id LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -494,20 +494,20 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="242.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="260.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="260.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="279.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="279.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -575,11 +575,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
